--- a/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_+75%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_+75%.xlsx
@@ -73943,6 +73943,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>14.10116666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>451.0444444444445</v>
       </c>
@@ -73998,6 +74001,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.541</v>
+      </c>
       <c r="C3" t="n">
         <v>426.9861111111111</v>
       </c>
@@ -74053,6 +74059,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.09933333333333</v>
+      </c>
       <c r="C4" t="n">
         <v>450.7927777777778</v>
       </c>
@@ -74108,6 +74117,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.7315</v>
+      </c>
       <c r="C5" t="n">
         <v>413.5244444444445</v>
       </c>
@@ -74163,6 +74175,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.4335</v>
+      </c>
       <c r="C6" t="n">
         <v>424.5372222222222</v>
       </c>
@@ -74218,6 +74233,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.0225</v>
+      </c>
       <c r="C7" t="n">
         <v>419.2327777777778</v>
       </c>
@@ -74273,6 +74291,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.38083333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>429.6972222222223</v>
       </c>
@@ -74328,6 +74349,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.03683333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>457.3111111111111</v>
       </c>
@@ -74383,6 +74407,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.98683333333333</v>
+      </c>
       <c r="C10" t="n">
         <v>450.5827777777778</v>
       </c>
@@ -74438,6 +74465,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>14.1935</v>
+      </c>
       <c r="C11" t="n">
         <v>455.5377777777777</v>
       </c>
@@ -74493,6 +74523,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.66316666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>423.796111111111</v>
       </c>
@@ -74548,6 +74581,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.9125</v>
+      </c>
       <c r="C13" t="n">
         <v>430.2255555555555</v>
       </c>
@@ -74603,6 +74639,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.5915</v>
+      </c>
       <c r="C14" t="n">
         <v>437.4955555555555</v>
       </c>
@@ -74658,6 +74697,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.26566666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>442.46</v>
       </c>
@@ -74713,6 +74755,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.41066666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>434.6372222222222</v>
       </c>
@@ -74768,6 +74813,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>13.8595</v>
+      </c>
       <c r="C17" t="n">
         <v>442.9377777777778</v>
       </c>
@@ -74823,6 +74871,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.683</v>
+      </c>
       <c r="C18" t="n">
         <v>455.588888888889</v>
       </c>
@@ -74878,6 +74929,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>15.07583333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>460.6827777777778</v>
       </c>
@@ -74933,6 +74987,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.6185</v>
+      </c>
       <c r="C20" t="n">
         <v>438.9633333333334</v>
       </c>
@@ -74988,6 +75045,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.65383333333333</v>
+      </c>
       <c r="C21" t="n">
         <v>416.0772222222222</v>
       </c>
@@ -75043,6 +75103,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.37733333333333</v>
+      </c>
       <c r="C22" t="n">
         <v>454.0222222222222</v>
       </c>
@@ -75098,6 +75161,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.18316666666667</v>
+      </c>
       <c r="C23" t="n">
         <v>442.8816666666667</v>
       </c>
@@ -75153,6 +75219,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.37033333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>437.1644444444445</v>
       </c>
@@ -75208,6 +75277,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.8415</v>
+      </c>
       <c r="C25" t="n">
         <v>433.8283333333333</v>
       </c>
@@ -75263,6 +75335,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>13.5455</v>
+      </c>
       <c r="C26" t="n">
         <v>426.4688888888889</v>
       </c>
@@ -75318,6 +75393,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.5415</v>
+      </c>
       <c r="C27" t="n">
         <v>403.5455555555556</v>
       </c>
@@ -75373,6 +75451,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.191</v>
+      </c>
       <c r="C28" t="n">
         <v>442.9677777777778</v>
       </c>
@@ -75428,6 +75509,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>11.44133333333333</v>
+      </c>
       <c r="C29" t="n">
         <v>422.401111111111</v>
       </c>
@@ -75483,6 +75567,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.799</v>
+      </c>
       <c r="C30" t="n">
         <v>456.1666666666667</v>
       </c>
@@ -75537,6 +75624,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>14.08966666666667</v>
       </c>
       <c r="C31" t="n">
         <v>432.3472222222222</v>
